--- a/siteApps/SCL_Cryo_Plant-sim-1-0/plantsimApp/Db/SCL3_QWR_IOC_PVlist.xlsx
+++ b/siteApps/SCL_Cryo_Plant-sim-1-0/plantsimApp/Db/SCL3_QWR_IOC_PVlist.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDrive\31.로컬제어\06.저온플랜트\16.GUI제작\01.PVList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LinuxVM_Share\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38085" windowHeight="15900" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38085" windowHeight="15900"/>
   </bookViews>
   <sheets>
     <sheet name="SCL31_QWR_CM" sheetId="12" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3009" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3012" uniqueCount="165">
   <si>
     <t>SCL31-</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -673,6 +673,22 @@
   </si>
   <si>
     <t>XV7301:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMXX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMXX</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1559,8 +1575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F287"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1573,9 +1589,11 @@
         <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8"/>
+        <v>163</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>161</v>
+      </c>
       <c r="E1" s="15" t="s">
         <v>16</v>
       </c>
@@ -1591,9 +1609,11 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>163</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="E2" s="2" t="s">
         <v>116</v>
       </c>
@@ -1609,9 +1629,11 @@
         <v>1</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5"/>
+        <v>164</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="E3" s="16" t="s">
         <v>55</v>
       </c>
@@ -7302,6 +7324,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7309,7 +7332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
